--- a/디비 정리.xlsx
+++ b/디비 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyh\Desktop\국비지원 교육 자료\Web_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616AD6D2-30A3-44DE-B645-EDD60514AC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC192B3-2B7B-4D2F-B780-AD3BF3B93911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8868" yWindow="3036" windowWidth="17280" windowHeight="9072" xr2:uid="{B59F6CB1-8AF3-40DD-9BAA-E845A5CC53F8}"/>
+    <workbookView xWindow="0" yWindow="1704" windowWidth="17280" windowHeight="9072" xr2:uid="{B59F6CB1-8AF3-40DD-9BAA-E845A5CC53F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>도착지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6354CE-D8C6-43E4-840C-F875131785E1}">
   <dimension ref="B2:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -514,15 +518,18 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>

--- a/디비 정리.xlsx
+++ b/디비 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyh\Desktop\국비지원 교육 자료\Web_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC192B3-2B7B-4D2F-B780-AD3BF3B93911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AD641F-4110-41FB-B443-90791066CF37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1704" windowWidth="17280" windowHeight="9072" xr2:uid="{B59F6CB1-8AF3-40DD-9BAA-E845A5CC53F8}"/>
   </bookViews>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출발지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +116,10 @@
   </si>
   <si>
     <t>영문이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +487,7 @@
   <dimension ref="B2:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -530,7 +530,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
@@ -544,10 +544,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
